--- a/server/src/public/siswa copy.xlsx
+++ b/server/src/public/siswa copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD4AFC-96B9-2747-A5A2-7CA99D85F469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022575C9-055C-EE41-BB5F-B52E1B8DE666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -36,9 +36,6 @@
     <t>kelas_id</t>
   </si>
   <si>
-    <t>jurusan_id</t>
-  </si>
-  <si>
     <t>d_kelas_id</t>
   </si>
   <si>
@@ -52,6 +49,15 @@
   </si>
   <si>
     <t>Rafly</t>
+  </si>
+  <si>
+    <t>jurusan_nama</t>
+  </si>
+  <si>
+    <t>RPL</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
 </sst>
 </file>
@@ -114,7 +120,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="siswa_nama"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="siswa_gender"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="kelas_id"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jurusan_id"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="jurusan_nama"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="d_kelas_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -445,7 +451,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -475,10 +481,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -486,16 +492,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -506,16 +512,16 @@
         <v>312</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -526,16 +532,16 @@
         <v>543</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2</v>

--- a/server/src/public/siswa copy.xlsx
+++ b/server/src/public/siswa copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022575C9-055C-EE41-BB5F-B52E1B8DE666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C4913F-E326-AC49-8B7A-F10247ED8A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>siswa_nis</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>AK</t>
+  </si>
+  <si>
+    <t>XI</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -497,8 +500,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -517,8 +520,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>3</v>
+      <c r="D3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -537,8 +540,8 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
